--- a/data_year/zb/对外经济贸易/按行业分外商投资企业年底注册登记情况/外方注册资本.xlsx
+++ b/data_year/zb/对外经济贸易/按行业分外商投资企业年底注册登记情况/外方注册资本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,65 +538,141 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16700</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61900</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17900</v>
+      </c>
+      <c r="G2" t="n">
+        <v>642400</v>
+      </c>
+      <c r="H2" t="n">
+        <v>900</v>
+      </c>
       <c r="I2" t="n">
-        <v>558000</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>1259000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4600</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21300</v>
+      </c>
+      <c r="L2" t="n">
+        <v>185300</v>
+      </c>
+      <c r="M2" t="n">
+        <v>52500</v>
+      </c>
+      <c r="N2" t="n">
+        <v>400</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7700</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>33300</v>
+      </c>
+      <c r="R2" t="n">
+        <v>48000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>92900</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27500</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33773.0602</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16734.3655</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54051.9557</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3986.2299</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20198.2967</v>
+      </c>
+      <c r="G3" t="n">
+        <v>689543.507</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1042.3613</v>
+      </c>
       <c r="I3" t="n">
-        <v>631930</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>1381028.4977</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4950.1144</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24345.6887</v>
+      </c>
+      <c r="L3" t="n">
+        <v>210476.0724</v>
+      </c>
+      <c r="M3" t="n">
+        <v>64981.7389</v>
+      </c>
+      <c r="N3" t="n">
+        <v>444.7644</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8361.5193</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8807.358899999999</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>36841.2824</v>
+      </c>
+      <c r="R3" t="n">
+        <v>53831.3429</v>
+      </c>
+      <c r="S3" t="n">
+        <v>108210.9753</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7034.5752</v>
+      </c>
+      <c r="U3" t="n">
+        <v>33413.2884</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -607,7 +683,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>740600</v>
+        <v>1490349.7496</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -625,863 +701,604 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>41225.856</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17086.663</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51887.1351</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3500.9399</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24450.5352</v>
+      </c>
+      <c r="G5" t="n">
+        <v>740148.345</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1463.7555</v>
+      </c>
       <c r="I5" t="n">
-        <v>921100</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+        <v>1607711.9312</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5839.4867</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27209.9712</v>
+      </c>
+      <c r="L5" t="n">
+        <v>267812.4361</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97297.0197</v>
+      </c>
+      <c r="N5" t="n">
+        <v>544.6987</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8986.054599999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9078.9943</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>40167.4672</v>
+      </c>
+      <c r="R5" t="n">
+        <v>65757.2932</v>
+      </c>
+      <c r="S5" t="n">
+        <v>142050.9671</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7236.8425</v>
+      </c>
+      <c r="U5" t="n">
+        <v>55967.4702</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24938.4282</v>
+        <v>44030.7808</v>
       </c>
       <c r="C6" t="n">
-        <v>16967.4292</v>
+        <v>17247.3641</v>
       </c>
       <c r="D6" t="n">
-        <v>45871.6615</v>
+        <v>39099.9029</v>
       </c>
       <c r="E6" t="n">
-        <v>3703.5765</v>
+        <v>505.687</v>
       </c>
       <c r="F6" t="n">
-        <v>13620.2845</v>
+        <v>27027.0346</v>
       </c>
       <c r="G6" t="n">
-        <v>575484.2426999999</v>
+        <v>774005.6274</v>
       </c>
       <c r="H6" t="n">
-        <v>898.403</v>
+        <v>1810.1969</v>
       </c>
       <c r="I6" t="n">
-        <v>1038850.5708</v>
+        <v>1741388.6408</v>
       </c>
       <c r="J6" t="n">
-        <v>4078.5036</v>
+        <v>6379.1308</v>
       </c>
       <c r="K6" t="n">
-        <v>16561.0584</v>
+        <v>28615.4838</v>
       </c>
       <c r="L6" t="n">
-        <v>146958.8489</v>
+        <v>298062.8538</v>
       </c>
       <c r="M6" t="n">
-        <v>36263.5877</v>
+        <v>115940.0809</v>
       </c>
       <c r="N6" t="n">
-        <v>390.9645</v>
+        <v>514.1095</v>
       </c>
       <c r="O6" t="n">
-        <v>6484.8641</v>
+        <v>9796.539500000001</v>
       </c>
       <c r="P6" t="n">
-        <v>5916.6985</v>
+        <v>10249.7855</v>
       </c>
       <c r="Q6" t="n">
-        <v>26151.8166</v>
+        <v>42665.4817</v>
       </c>
       <c r="R6" t="n">
-        <v>29580.0138</v>
+        <v>77283.24430000001</v>
       </c>
       <c r="S6" t="n">
-        <v>62739.2368</v>
+        <v>172684.3033</v>
       </c>
       <c r="T6" t="n">
-        <v>4705.4574</v>
+        <v>7592.0404</v>
       </c>
       <c r="U6" t="n">
-        <v>17535.4949</v>
+        <v>67878.9936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27193.0177</v>
+        <v>50511.4564</v>
       </c>
       <c r="C7" t="n">
-        <v>18886.9561</v>
+        <v>18485.6898</v>
       </c>
       <c r="D7" t="n">
-        <v>58979.7144</v>
+        <v>73911.32769999999</v>
       </c>
       <c r="E7" t="n">
-        <v>3574.2225</v>
+        <v>1018.4278</v>
       </c>
       <c r="F7" t="n">
-        <v>15257.1404</v>
+        <v>29977.7959</v>
       </c>
       <c r="G7" t="n">
-        <v>601269.7086</v>
+        <v>815269.0725</v>
       </c>
       <c r="H7" t="n">
-        <v>961.6651000000001</v>
+        <v>2803.4838</v>
       </c>
       <c r="I7" t="n">
-        <v>1136900</v>
+        <v>2075674.0641</v>
       </c>
       <c r="J7" t="n">
-        <v>4008.8203</v>
+        <v>7921.3398</v>
       </c>
       <c r="K7" t="n">
-        <v>18047.047</v>
+        <v>30791.1186</v>
       </c>
       <c r="L7" t="n">
-        <v>157555.0537</v>
+        <v>320498.1515</v>
       </c>
       <c r="M7" t="n">
-        <v>42610.546</v>
+        <v>140353.1604</v>
       </c>
       <c r="N7" t="n">
-        <v>474.9554</v>
+        <v>519.6138999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>6156.3336</v>
+        <v>12670.2742</v>
       </c>
       <c r="P7" t="n">
-        <v>6882.6605</v>
+        <v>11241.3378</v>
       </c>
       <c r="Q7" t="n">
-        <v>31294.5883</v>
+        <v>51427.7937</v>
       </c>
       <c r="R7" t="n">
-        <v>37182.2479</v>
+        <v>101543.3452</v>
       </c>
       <c r="S7" t="n">
-        <v>78627.606</v>
+        <v>302874.3198</v>
       </c>
       <c r="T7" t="n">
-        <v>5647.5579</v>
+        <v>8691.8156</v>
       </c>
       <c r="U7" t="n">
-        <v>22335.4807</v>
+        <v>95164.53969999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29000</v>
+        <v>57565.5967</v>
       </c>
       <c r="C8" t="n">
-        <v>16700</v>
+        <v>31431.4481</v>
       </c>
       <c r="D8" t="n">
-        <v>61900</v>
+        <v>85212.4166</v>
       </c>
       <c r="E8" t="n">
-        <v>3900</v>
+        <v>1341.8896</v>
       </c>
       <c r="F8" t="n">
-        <v>17900</v>
+        <v>45217.5461</v>
       </c>
       <c r="G8" t="n">
-        <v>642400</v>
+        <v>846813.5568</v>
       </c>
       <c r="H8" t="n">
-        <v>900</v>
+        <v>4626.4354</v>
       </c>
       <c r="I8" t="n">
-        <v>1259000</v>
+        <v>2391845.2183</v>
       </c>
       <c r="J8" t="n">
-        <v>4600</v>
+        <v>8928.4319</v>
       </c>
       <c r="K8" t="n">
-        <v>21300</v>
+        <v>37879.7882</v>
       </c>
       <c r="L8" t="n">
-        <v>185300</v>
+        <v>335982.1919</v>
       </c>
       <c r="M8" t="n">
-        <v>52500</v>
+        <v>168053.131</v>
       </c>
       <c r="N8" t="n">
-        <v>400</v>
+        <v>633.701</v>
       </c>
       <c r="O8" t="n">
-        <v>6500</v>
+        <v>18674.3303</v>
       </c>
       <c r="P8" t="n">
-        <v>7700</v>
+        <v>13331.7171</v>
       </c>
       <c r="Q8" t="n">
-        <v>33300</v>
+        <v>56156.2749</v>
       </c>
       <c r="R8" t="n">
-        <v>48000</v>
+        <v>140002.8457</v>
       </c>
       <c r="S8" t="n">
-        <v>92900</v>
+        <v>394076.3798</v>
       </c>
       <c r="T8" t="n">
-        <v>6300</v>
+        <v>8574.879000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>27500</v>
+        <v>137342.6582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33773.0602</v>
+        <v>72703.0552</v>
       </c>
       <c r="C9" t="n">
-        <v>16734.3655</v>
+        <v>31923.0712</v>
       </c>
       <c r="D9" t="n">
-        <v>54051.9557</v>
+        <v>110044.7408</v>
       </c>
       <c r="E9" t="n">
-        <v>3986.2299</v>
+        <v>1939.0587</v>
       </c>
       <c r="F9" t="n">
-        <v>20198.2967</v>
+        <v>58859.3941</v>
       </c>
       <c r="G9" t="n">
-        <v>689543.507</v>
+        <v>893563.5377</v>
       </c>
       <c r="H9" t="n">
-        <v>1042.3613</v>
+        <v>7311.7409</v>
       </c>
       <c r="I9" t="n">
-        <v>1381028.4977</v>
+        <v>2826620</v>
       </c>
       <c r="J9" t="n">
-        <v>4950.1144</v>
+        <v>11713.1753</v>
       </c>
       <c r="K9" t="n">
-        <v>24345.6887</v>
+        <v>45713.167</v>
       </c>
       <c r="L9" t="n">
-        <v>210476.0724</v>
+        <v>380004.4962</v>
       </c>
       <c r="M9" t="n">
-        <v>64981.7389</v>
+        <v>200835.5147</v>
       </c>
       <c r="N9" t="n">
-        <v>444.7644</v>
+        <v>2579.4797</v>
       </c>
       <c r="O9" t="n">
-        <v>8361.5193</v>
+        <v>22796.6307</v>
       </c>
       <c r="P9" t="n">
-        <v>8807.358899999999</v>
+        <v>18114.7336</v>
       </c>
       <c r="Q9" t="n">
-        <v>36841.2824</v>
+        <v>79976.3346</v>
       </c>
       <c r="R9" t="n">
-        <v>53831.3429</v>
+        <v>193487.8509</v>
       </c>
       <c r="S9" t="n">
-        <v>108210.9753</v>
+        <v>501971.9562</v>
       </c>
       <c r="T9" t="n">
-        <v>7034.5752</v>
+        <v>8875.193300000001</v>
       </c>
       <c r="U9" t="n">
-        <v>33413.2884</v>
+        <v>184205.4339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75056.34020000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33261.402</v>
+      </c>
+      <c r="D10" t="n">
+        <v>132549.783</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2669.3119</v>
+      </c>
+      <c r="F10" t="n">
+        <v>103455.1301</v>
+      </c>
+      <c r="G10" t="n">
+        <v>939462.9875</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9285.7322</v>
+      </c>
       <c r="I10" t="n">
-        <v>1490349.7496</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+        <v>3234190</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15617.1472</v>
+      </c>
+      <c r="K10" t="n">
+        <v>50375.6813</v>
+      </c>
+      <c r="L10" t="n">
+        <v>398500.1712</v>
+      </c>
+      <c r="M10" t="n">
+        <v>242187.1418</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2937.8838</v>
+      </c>
+      <c r="O10" t="n">
+        <v>32353.0066</v>
+      </c>
+      <c r="P10" t="n">
+        <v>22938.2648</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>67184.0606</v>
+      </c>
+      <c r="R10" t="n">
+        <v>263621.7097</v>
+      </c>
+      <c r="S10" t="n">
+        <v>612243.9534</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8865.9889</v>
+      </c>
+      <c r="U10" t="n">
+        <v>221627.109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41225.856</v>
+        <v>82108.7113</v>
       </c>
       <c r="C11" t="n">
-        <v>17086.663</v>
+        <v>35980.6416</v>
       </c>
       <c r="D11" t="n">
-        <v>51887.1351</v>
+        <v>188054.9984</v>
       </c>
       <c r="E11" t="n">
-        <v>3500.9399</v>
+        <v>6493.8453</v>
       </c>
       <c r="F11" t="n">
-        <v>24450.5352</v>
+        <v>103644.5856</v>
       </c>
       <c r="G11" t="n">
-        <v>740148.345</v>
+        <v>993522.9288</v>
       </c>
       <c r="H11" t="n">
-        <v>1463.7555</v>
+        <v>12688.6507</v>
       </c>
       <c r="I11" t="n">
-        <v>1607711.9312</v>
+        <v>3789450</v>
       </c>
       <c r="J11" t="n">
-        <v>5839.4867</v>
+        <v>23227.1671</v>
       </c>
       <c r="K11" t="n">
-        <v>27209.9712</v>
+        <v>55957.7591</v>
       </c>
       <c r="L11" t="n">
-        <v>267812.4361</v>
+        <v>434134.2882</v>
       </c>
       <c r="M11" t="n">
-        <v>97297.0197</v>
+        <v>271169.9832</v>
       </c>
       <c r="N11" t="n">
-        <v>544.6987</v>
+        <v>3031.5973</v>
       </c>
       <c r="O11" t="n">
-        <v>8986.054599999999</v>
+        <v>35788.4664</v>
       </c>
       <c r="P11" t="n">
-        <v>9078.9943</v>
+        <v>24261.9761</v>
       </c>
       <c r="Q11" t="n">
-        <v>40167.4672</v>
+        <v>69751.185</v>
       </c>
       <c r="R11" t="n">
-        <v>65757.2932</v>
+        <v>504243.4402</v>
       </c>
       <c r="S11" t="n">
-        <v>142050.9671</v>
+        <v>700580.6808</v>
       </c>
       <c r="T11" t="n">
-        <v>7236.8425</v>
+        <v>8125.691</v>
       </c>
       <c r="U11" t="n">
-        <v>55967.4702</v>
+        <v>236681.8601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44030.7808</v>
+        <v>73616.0362</v>
       </c>
       <c r="C12" t="n">
-        <v>17247.3641</v>
+        <v>35813.3856</v>
       </c>
       <c r="D12" t="n">
-        <v>39099.9029</v>
+        <v>275888.1406</v>
       </c>
       <c r="E12" t="n">
-        <v>505.687</v>
+        <v>8083.5078</v>
       </c>
       <c r="F12" t="n">
-        <v>27027.0346</v>
+        <v>106662.0383</v>
       </c>
       <c r="G12" t="n">
-        <v>774005.6274</v>
+        <v>1048058.3903</v>
       </c>
       <c r="H12" t="n">
-        <v>1810.1969</v>
+        <v>30655.6688</v>
       </c>
       <c r="I12" t="n">
-        <v>1741388.6408</v>
+        <v>6282313.3168</v>
       </c>
       <c r="J12" t="n">
-        <v>6379.1308</v>
+        <v>38886.3949</v>
       </c>
       <c r="K12" t="n">
-        <v>28615.4838</v>
+        <v>65247.1199</v>
       </c>
       <c r="L12" t="n">
-        <v>298062.8538</v>
+        <v>1252836.3156</v>
       </c>
       <c r="M12" t="n">
-        <v>115940.0809</v>
+        <v>678391.911</v>
       </c>
       <c r="N12" t="n">
-        <v>514.1095</v>
+        <v>3280.7713</v>
       </c>
       <c r="O12" t="n">
-        <v>9796.539500000001</v>
+        <v>47856.1896</v>
       </c>
       <c r="P12" t="n">
-        <v>10249.7855</v>
+        <v>44483.6745</v>
       </c>
       <c r="Q12" t="n">
-        <v>42665.4817</v>
+        <v>110163.9866</v>
       </c>
       <c r="R12" t="n">
-        <v>77283.24430000001</v>
+        <v>577353.9163</v>
       </c>
       <c r="S12" t="n">
-        <v>172684.3033</v>
+        <v>1618157.8612</v>
       </c>
       <c r="T12" t="n">
-        <v>7592.0404</v>
+        <v>8074.6898</v>
       </c>
       <c r="U12" t="n">
-        <v>67878.9936</v>
+        <v>258803.3185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50511.4564</v>
+        <v>85153.0678</v>
       </c>
       <c r="C13" t="n">
-        <v>18485.6898</v>
+        <v>23722.4714</v>
       </c>
       <c r="D13" t="n">
-        <v>73911.32769999999</v>
+        <v>548610.4132</v>
       </c>
       <c r="E13" t="n">
-        <v>1018.4278</v>
+        <v>337698.5328</v>
       </c>
       <c r="F13" t="n">
-        <v>29977.7959</v>
+        <v>154652.3784</v>
       </c>
       <c r="G13" t="n">
-        <v>815269.0725</v>
+        <v>1258062.8121</v>
       </c>
       <c r="H13" t="n">
-        <v>2803.4838</v>
+        <v>35750.8248</v>
       </c>
       <c r="I13" t="n">
-        <v>2075674.0641</v>
+        <v>8559703.3105</v>
       </c>
       <c r="J13" t="n">
-        <v>7921.3398</v>
+        <v>34031.3402</v>
       </c>
       <c r="K13" t="n">
-        <v>30791.1186</v>
+        <v>75738.2687</v>
       </c>
       <c r="L13" t="n">
-        <v>320498.1515</v>
+        <v>1286108.1297</v>
       </c>
       <c r="M13" t="n">
-        <v>140353.1604</v>
+        <v>740686.5849</v>
       </c>
       <c r="N13" t="n">
-        <v>519.6138999999999</v>
+        <v>9575.7215</v>
       </c>
       <c r="O13" t="n">
-        <v>12670.2742</v>
+        <v>62141.3292</v>
       </c>
       <c r="P13" t="n">
-        <v>11241.3378</v>
+        <v>58838.7659</v>
       </c>
       <c r="Q13" t="n">
-        <v>51427.7937</v>
+        <v>114786.5019</v>
       </c>
       <c r="R13" t="n">
-        <v>101543.3452</v>
+        <v>1422651.1996</v>
       </c>
       <c r="S13" t="n">
-        <v>302874.3198</v>
+        <v>2011200.556</v>
       </c>
       <c r="T13" t="n">
-        <v>8691.8156</v>
+        <v>9825.4136</v>
       </c>
       <c r="U13" t="n">
-        <v>95164.53969999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>57565.5967</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31431.4481</v>
-      </c>
-      <c r="D14" t="n">
-        <v>85212.4166</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1341.8896</v>
-      </c>
-      <c r="F14" t="n">
-        <v>45217.5461</v>
-      </c>
-      <c r="G14" t="n">
-        <v>846813.5568</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4626.4354</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2391845.2183</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8928.4319</v>
-      </c>
-      <c r="K14" t="n">
-        <v>37879.7882</v>
-      </c>
-      <c r="L14" t="n">
-        <v>335982.1919</v>
-      </c>
-      <c r="M14" t="n">
-        <v>168053.131</v>
-      </c>
-      <c r="N14" t="n">
-        <v>633.701</v>
-      </c>
-      <c r="O14" t="n">
-        <v>18674.3303</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13331.7171</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>56156.2749</v>
-      </c>
-      <c r="R14" t="n">
-        <v>140002.8457</v>
-      </c>
-      <c r="S14" t="n">
-        <v>394076.3798</v>
-      </c>
-      <c r="T14" t="n">
-        <v>8574.879000000001</v>
-      </c>
-      <c r="U14" t="n">
-        <v>137342.6582</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>72703.0552</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31923.0712</v>
-      </c>
-      <c r="D15" t="n">
-        <v>110044.7408</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1939.0587</v>
-      </c>
-      <c r="F15" t="n">
-        <v>58859.3941</v>
-      </c>
-      <c r="G15" t="n">
-        <v>893563.5377</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7311.7409</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2826618.5647</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11713.1753</v>
-      </c>
-      <c r="K15" t="n">
-        <v>45713.167</v>
-      </c>
-      <c r="L15" t="n">
-        <v>380004.4962</v>
-      </c>
-      <c r="M15" t="n">
-        <v>200835.5147</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2579.4797</v>
-      </c>
-      <c r="O15" t="n">
-        <v>22796.6307</v>
-      </c>
-      <c r="P15" t="n">
-        <v>18114.7336</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>79976.3346</v>
-      </c>
-      <c r="R15" t="n">
-        <v>193487.8509</v>
-      </c>
-      <c r="S15" t="n">
-        <v>501971.9562</v>
-      </c>
-      <c r="T15" t="n">
-        <v>8875.193300000001</v>
-      </c>
-      <c r="U15" t="n">
-        <v>184205.4339</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>75056.34020000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>33261.402</v>
-      </c>
-      <c r="D16" t="n">
-        <v>132549.783</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2669.3119</v>
-      </c>
-      <c r="F16" t="n">
-        <v>103455.1301</v>
-      </c>
-      <c r="G16" t="n">
-        <v>939462.9875</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9285.7322</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3234192.8052</v>
-      </c>
-      <c r="J16" t="n">
-        <v>15617.1472</v>
-      </c>
-      <c r="K16" t="n">
-        <v>50375.6813</v>
-      </c>
-      <c r="L16" t="n">
-        <v>398500.1712</v>
-      </c>
-      <c r="M16" t="n">
-        <v>242187.1418</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2937.8838</v>
-      </c>
-      <c r="O16" t="n">
-        <v>32353.0066</v>
-      </c>
-      <c r="P16" t="n">
-        <v>22938.2648</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>67184.0606</v>
-      </c>
-      <c r="R16" t="n">
-        <v>263621.7097</v>
-      </c>
-      <c r="S16" t="n">
-        <v>612243.9534</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8865.9889</v>
-      </c>
-      <c r="U16" t="n">
-        <v>221627.109</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>82108.7113</v>
-      </c>
-      <c r="C17" t="n">
-        <v>35980.6416</v>
-      </c>
-      <c r="D17" t="n">
-        <v>188054.9984</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6493.8453</v>
-      </c>
-      <c r="F17" t="n">
-        <v>103644.5856</v>
-      </c>
-      <c r="G17" t="n">
-        <v>993522.9288</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12688.6507</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3789448.4562</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23227.1671</v>
-      </c>
-      <c r="K17" t="n">
-        <v>55957.7591</v>
-      </c>
-      <c r="L17" t="n">
-        <v>434134.2882</v>
-      </c>
-      <c r="M17" t="n">
-        <v>271169.9832</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3031.5973</v>
-      </c>
-      <c r="O17" t="n">
-        <v>35788.4664</v>
-      </c>
-      <c r="P17" t="n">
-        <v>24261.9761</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>69751.185</v>
-      </c>
-      <c r="R17" t="n">
-        <v>504243.4402</v>
-      </c>
-      <c r="S17" t="n">
-        <v>700580.6808</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8125.691</v>
-      </c>
-      <c r="U17" t="n">
-        <v>236681.8601</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>73616.0362</v>
-      </c>
-      <c r="C18" t="n">
-        <v>35813.3856</v>
-      </c>
-      <c r="D18" t="n">
-        <v>275888.1406</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8083.5078</v>
-      </c>
-      <c r="F18" t="n">
-        <v>106662.0383</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1048058.3903</v>
-      </c>
-      <c r="H18" t="n">
-        <v>30655.6688</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6282313.3168</v>
-      </c>
-      <c r="J18" t="n">
-        <v>38886.3949</v>
-      </c>
-      <c r="K18" t="n">
-        <v>65247.1199</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1252836.3156</v>
-      </c>
-      <c r="M18" t="n">
-        <v>678391.911</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3280.7713</v>
-      </c>
-      <c r="O18" t="n">
-        <v>47856.1896</v>
-      </c>
-      <c r="P18" t="n">
-        <v>44483.6745</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>110163.9866</v>
-      </c>
-      <c r="R18" t="n">
-        <v>577353.9163</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1618157.8612</v>
-      </c>
-      <c r="T18" t="n">
-        <v>8074.6898</v>
-      </c>
-      <c r="U18" t="n">
-        <v>258803.3185</v>
+        <v>290468.9988</v>
       </c>
     </row>
   </sheetData>
